--- a/assets/קובץ אישורי הגעה מקורי.xlsx
+++ b/assets/קובץ אישורי הגעה מקורי.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Siduration\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20C9580-D6F1-40BF-B5CA-317813A3DEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB7B466-E6BC-42BE-8391-E7991764EDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31305" yWindow="2505" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Phone</t>
-  </si>
-  <si>
-    <t>Amount_Invited</t>
   </si>
   <si>
     <t>Notes</t>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>הערות אפרת</t>
+  </si>
+  <si>
+    <t>AmountInvited</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -726,130 +726,130 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="25">
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="11">
         <v>2</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="25">
         <v>1</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="11">
         <v>5</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="25">
         <v>1</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="F4" s="11">
         <v>2</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>20</v>
       </c>
       <c r="C5" s="25">
         <v>2</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="F5" s="11">
         <v>8</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>25</v>
       </c>
       <c r="C6" s="25">
         <v>2</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="11">
         <v>5</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="4"/>
     </row>
